--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3807.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3807.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.713798673853748</v>
+        <v>3.681896924972534</v>
       </c>
       <c r="B1">
-        <v>2.005548472698512</v>
+        <v>7.013472557067871</v>
       </c>
       <c r="C1">
-        <v>2.58368593148014</v>
+        <v>7.132493495941162</v>
       </c>
       <c r="D1">
-        <v>5.065503433582059</v>
+        <v>2.379313707351685</v>
       </c>
       <c r="E1">
-        <v>0.7995646202908713</v>
+        <v>1.46185314655304</v>
       </c>
     </row>
   </sheetData>
